--- a/Finflux Automation Excels/Client/2593-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-EARLY-Newcreateloan2.xlsx
+++ b/Finflux Automation Excels/Client/2593-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-EARLY-Newcreateloan2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -64,9 +69,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -119,13 +121,16 @@
   </si>
   <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +159,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -175,27 +187,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -204,7 +201,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +224,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,27 +576,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4">
-        <v>42064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -576,120 +607,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>449.04</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>9550.9599999999991</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>1733.54</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>522.37</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>50.96</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>471.41</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>41.9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>0.42</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.42</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.42</v>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -702,717 +731,717 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="1" max="1" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.5703125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
         <v>42005</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6">
         <v>5000</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>31</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>42036</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>42036</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5">
+      <c r="E3" s="8"/>
+      <c r="F3" s="4">
         <v>449.04</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4550.96</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>50.96</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>50.96</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>500</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>449.04</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>42050</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>866.77</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>3684.19</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>20.95</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="5">
-        <v>887.93</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5">
-        <v>887.93</v>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5">
         <v>42064</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6">
         <v>5000</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>42064</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>866.77</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>7817.42</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>20.95</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="K6" s="5">
-        <v>887.93</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5">
-        <v>887.93</v>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>31</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>42095</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>790.38</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>7027.04</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>97.34</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
-        <v>887.72</v>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="K7" s="4">
+        <v>888.14</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>888.14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>30</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>42125</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>818.41</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>6208.63</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>69.31</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5">
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>31</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>42156</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>824.44</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>5384.19</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>63.28</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>30</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>42186</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>834.62</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>4549.57</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>53.1</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>31</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>42217</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>841.35</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>3708.22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>46.37</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>31</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>42248</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>849.93</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>2858.29</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>37.79</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>30</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>42278</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>859.53</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>1998.76</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>28.19</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>31</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>42309</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>867.35</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>1131.4100000000001</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>20.37</v>
       </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>30</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>42339</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <v>876.56</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>254.85</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>11.16</v>
       </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4">
         <v>887.72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>31</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>42370</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <v>254.85</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>2.6</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>257.45</v>
       </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4">
         <v>257.45</v>
       </c>
     </row>
@@ -1427,293 +1456,295 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>336</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>42095</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4">
+        <v>97.76</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>97.34</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>97.34</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="4">
+        <v>335</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5">
         <v>42064</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5">
-        <v>21.16</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
         <v>20.95</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="4">
+        <v>332</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
         <v>42064</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>5000</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>9550.9599999999991</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="4">
+        <v>334</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5">
         <v>42050</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5">
-        <v>21.16</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4">
         <v>20.95</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="4">
+        <v>333</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
         <v>42036</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4">
         <v>50.96</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>50.96</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="A7" s="4">
+        <v>331</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
         <v>42036</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
         <v>500</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>449.04</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>50.96</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>4550.96</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="4">
+        <v>330</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
         <v>42005</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>5000</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>5000</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
